--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="ASU Offense, WSU Offense" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="SEC Off, PRIME Def" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="WSU Offense, ASU Offense" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -8904,7 +8904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="C1:BF100"/>
+  <dimension ref="A1:BF100"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A67" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="11" ySplit="0" topLeftCell="L67" activePane="topRight" state="frozen"/>
@@ -8950,6 +8950,14 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="13">
+      <c r="A1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C1" s="10" t="n">
         <v>1</v>
       </c>
@@ -8958,6 +8966,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H1" s="10">
         <f>IF(E1="","",IF(K1="x","d",IF(K1="p","d",IF(AJ1="o","o",IF(E1="1st",AK1,IF(E1="2nd",AL1,AJ1))))))</f>
         <v/>
@@ -8984,6 +9005,37 @@
         <f>IF((F1-F2)&lt;=1,"d",IF((F1-F2)&gt;=F1/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>75</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Kyle Williams for 6 yds to the WSU 31</t>
+        </is>
+      </c>
       <c r="BE1" s="10">
         <f>IF(AT1="","",IF(AT2="",AV1,AT1-AT2))</f>
         <v/>
@@ -8994,6 +9046,14 @@
       </c>
     </row>
     <row r="2" ht="12.8" customHeight="1" s="13">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C2" s="10">
         <f>IF(A1=A2,C1+1,1)</f>
         <v/>
@@ -9003,6 +9063,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
       <c r="H2" s="10">
         <f>IF(E2="","",IF(K2="x","d",IF(K2="p","d",IF(AJ2="o","o",IF(E2="1st",AK2,IF(E2="2nd",AL2,AJ2))))))</f>
         <v/>
@@ -9030,6 +9103,37 @@
         <f>IF((F2-F3)&lt;=1,"d",IF((F2-F3)&gt;=F2/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>69</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Rush</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>Nakia Watson run for 5 yds to the WSU 36 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE2" s="10">
         <f>IF(AT2="","",IF(AT3="",AV2,AT2-AT3))</f>
         <v/>
@@ -9040,6 +9144,14 @@
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="13">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C3" s="10">
         <f>IF(A2=A3,C2+1,1)</f>
         <v/>
@@ -9049,6 +9161,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>10</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H3" s="10">
         <f>IF(E3="","",IF(K3="x","d",IF(K3="p","d",IF(AJ3="o","o",IF(E3="1st",AK3,IF(E3="2nd",AL3,AJ3))))))</f>
         <v/>
@@ -9077,6 +9202,37 @@
         <f>IF((F3-F4)&lt;=1,"d",IF((F3-F4)&gt;=F3/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>64</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Pass Incompletion</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass incomplete to Lincoln Victor</t>
+        </is>
+      </c>
       <c r="BE3" s="10">
         <f>IF(AT3="","",IF(AT4="",AV3,AT3-AT4))</f>
         <v/>
@@ -9087,6 +9243,14 @@
       </c>
     </row>
     <row r="4" ht="12.8" customHeight="1" s="13">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C4" s="10">
         <f>IF(A3=A4,C3+1,1)</f>
         <v/>
@@ -9096,6 +9260,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H4" s="10">
         <f>IF(E4="","",IF(K4="x","d",IF(K4="p","d",IF(AJ4="o","o",IF(E4="1st",AK4,IF(E4="2nd",AL4,AJ4))))))</f>
         <v/>
@@ -9124,6 +9301,37 @@
         <f>IF((F4-F5)&lt;=1,"d",IF((F4-F5)&gt;=F4/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>64</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Josh Kelly for 14 yds to the 50 yard line for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE4" s="10">
         <f>IF(AT4="","",IF(AT5="",AV4,AT4-AT5))</f>
         <v/>
@@ -9134,6 +9342,14 @@
       </c>
     </row>
     <row r="5" ht="12.8" customHeight="1" s="13">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C5" s="10">
         <f>IF(A4=A5,C4+1,1)</f>
         <v/>
@@ -9143,6 +9359,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H5" s="10">
         <f>IF(E5="","",IF(K5="x","d",IF(K5="p","d",IF(AJ5="o","o",IF(E5="1st",AK5,IF(E5="2nd",AL5,AJ5))))))</f>
         <v/>
@@ -9171,6 +9400,37 @@
         <f>IF((F5-F6)&lt;=1,"d",IF((F5-F6)&gt;=F5/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Lincoln Victor for no gain to the 50 yard line</t>
+        </is>
+      </c>
       <c r="BE5" s="10">
         <f>IF(AT5="","",IF(AT6="",AV5,AT5-AT6))</f>
         <v/>
@@ -9181,6 +9441,14 @@
       </c>
     </row>
     <row r="6" ht="12.8" customHeight="1" s="13">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C6" s="10">
         <f>IF(A5=A6,C5+1,1)</f>
         <v/>
@@ -9190,6 +9458,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H6" s="10">
         <f>IF(E6="","",IF(K6="x","d",IF(K6="p","d",IF(AJ6="o","o",IF(E6="1st",AK6,IF(E6="2nd",AL6,AJ6))))))</f>
         <v/>
@@ -9218,6 +9499,37 @@
         <f>IF((F6-F7)&lt;=1,"d",IF((F6-F7)&gt;=F6/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Cooper Mathers for 4 yds to the ASU 46</t>
+        </is>
+      </c>
       <c r="BE6" s="10">
         <f>IF(AT6="","",IF(AT7="",AV6,AT6-AT7))</f>
         <v/>
@@ -9228,6 +9540,14 @@
       </c>
     </row>
     <row r="7" ht="12.8" customHeight="1" s="13">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C7" s="10">
         <f>IF(A6=A7,C6+1,1)</f>
         <v/>
@@ -9237,6 +9557,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H7" s="10">
         <f>IF(E7="","",IF(K7="x","d",IF(K7="p","d",IF(AJ7="o","o",IF(E7="1st",AK7,IF(E7="2nd",AL7,AJ7))))))</f>
         <v/>
@@ -9265,6 +9598,37 @@
         <f>IF((F7-F8)&lt;=1,"d",IF((F7-F8)&gt;=F7/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Kyle Williams for 10 yds to the ASU 36 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE7" s="10">
         <f>IF(AT7="","",IF(AT8="",AV7,AT7-AT8))</f>
         <v/>
@@ -9275,6 +9639,14 @@
       </c>
     </row>
     <row r="8" ht="12.8" customHeight="1" s="13">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C8" s="10">
         <f>IF(A7=A8,C7+1,1)</f>
         <v/>
@@ -9284,6 +9656,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H8" s="10">
         <f>IF(E8="","",IF(K8="x","d",IF(K8="p","d",IF(AJ8="o","o",IF(E8="1st",AK8,IF(E8="2nd",AL8,AJ8))))))</f>
         <v/>
@@ -9312,6 +9697,37 @@
         <f>IF((F8-F9)&lt;=1,"d",IF((F8-F9)&gt;=F8/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>36</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Cooper Mathers for 9 yds to the ASU 27</t>
+        </is>
+      </c>
       <c r="BE8" s="10">
         <f>IF(AT8="","",IF(AT9="",AV8,AT8-AT9))</f>
         <v/>
@@ -9322,6 +9738,14 @@
       </c>
     </row>
     <row r="9" ht="12.8" customHeight="1" s="13">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C9" s="10">
         <f>IF(A8=A9,C8+1,1)</f>
         <v/>
@@ -9331,6 +9755,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H9" s="10">
         <f>IF(E9="","",IF(K9="x","d",IF(K9="p","d",IF(AJ9="o","o",IF(E9="1st",AK9,IF(E9="2nd",AL9,AJ9))))))</f>
         <v/>
@@ -9359,6 +9796,37 @@
         <f>IF((F9-F10)&lt;=1,"d",IF((F9-F10)&gt;=F9/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Pass Incompletion</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass incomplete to Kyle Williams</t>
+        </is>
+      </c>
       <c r="BE9" s="10">
         <f>IF(AT9="","",IF(AT10="",AV9,AT9-AT10))</f>
         <v/>
@@ -9369,6 +9837,14 @@
       </c>
     </row>
     <row r="10" ht="12.8" customHeight="1" s="13">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C10" s="10">
         <f>IF(A9=A10,C9+1,1)</f>
         <v/>
@@ -9378,6 +9854,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
       <c r="H10" s="10">
         <f>IF(E10="","",IF(K10="x","d",IF(K10="p","d",IF(AJ10="o","o",IF(E10="1st",AK10,IF(E10="2nd",AL10,AJ10))))))</f>
         <v/>
@@ -9406,6 +9895,37 @@
         <f>IF((F10-F11)&lt;=1,"d",IF((F10-F11)&gt;=F10/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Rush</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Cameron Ward run for no gain to the ASU 27</t>
+        </is>
+      </c>
       <c r="BE10" s="10">
         <f>IF(AT10="","",IF(AT11="",AV10,AT10-AT11))</f>
         <v/>
@@ -9416,6 +9936,14 @@
       </c>
     </row>
     <row r="11" ht="12.8" customHeight="1" s="13">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C11" s="10">
         <f>IF(A10=A11,C10+1,1)</f>
         <v/>
@@ -9425,6 +9953,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
       <c r="H11" s="10">
         <f>IF(E11="","",IF(K11="x","d",IF(K11="p","d",IF(AJ11="o","o",IF(E11="1st",AK11,IF(E11="2nd",AL11,AJ11))))))</f>
         <v/>
@@ -9453,6 +9994,37 @@
         <f>IF((F11-F12)&lt;=1,"d",IF((F11-F12)&gt;=F11/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Rush</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Cameron Ward run for 3 yds to the ASU 24 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE11" s="10">
         <f>IF(AT11="","",IF(AT12="",AV11,AT11-AT12))</f>
         <v/>
@@ -9463,6 +10035,14 @@
       </c>
     </row>
     <row r="12" ht="12.8" customHeight="1" s="13">
+      <c r="A12" t="n">
+        <v>5</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C12" s="10">
         <f>IF(A11=A12,C11+1,1)</f>
         <v/>
@@ -9472,6 +10052,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H12" s="10">
         <f>IF(E12="","",IF(K12="x","d",IF(K12="p","d",IF(AJ12="o","o",IF(E12="1st",AK12,IF(E12="2nd",AL12,AJ12))))))</f>
         <v/>
@@ -9500,6 +10093,37 @@
         <f>IF((F12-F13)&lt;=1,"d",IF((F12-F13)&gt;=F12/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Isaiah Hamilton for 17 yds to the ASU 7 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE12" s="10">
         <f>IF(AT12="","",IF(AT13="",AV12,AT12-AT13))</f>
         <v/>
@@ -9510,6 +10134,14 @@
       </c>
     </row>
     <row r="13" ht="12.8" customHeight="1" s="13">
+      <c r="A13" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C13" s="10">
         <f>IF(A12=A13,C12+1,1)</f>
         <v/>
@@ -9519,6 +10151,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H13" s="10">
         <f>IF(E13="","",IF(K13="x","d",IF(K13="p","d",IF(AJ13="o","o",IF(E13="1st",AK13,IF(E13="2nd",AL13,AJ13))))))</f>
         <v/>
@@ -9547,6 +10192,37 @@
         <f>IF((F13-F14)&lt;=1,"d",IF((F13-F14)&gt;=F13/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Pass Incompletion</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass incomplete to Kyle Williams</t>
+        </is>
+      </c>
       <c r="BE13" s="10">
         <f>IF(AT13="","",IF(AT14="",AV13,AT13-AT14))</f>
         <v/>
@@ -9557,6 +10233,14 @@
       </c>
     </row>
     <row r="14" ht="12.8" customHeight="1" s="13">
+      <c r="A14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C14" s="10">
         <f>IF(A13=A14,C13+1,1)</f>
         <v/>
@@ -9566,6 +10250,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H14" s="10">
         <f>IF(E14="","",IF(K14="x","d",IF(K14="p","d",IF(AJ14="o","o",IF(E14="1st",AK14,IF(E14="2nd",AL14,AJ14))))))</f>
         <v/>
@@ -9594,6 +10291,37 @@
         <f>IF((F14-F15)&lt;=1,"d",IF((F14-F15)&gt;=F14/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Billy Riviere III for 4 yds to the ASU 3</t>
+        </is>
+      </c>
       <c r="BE14" s="10">
         <f>IF(AT14="","",IF(AT15="",AV14,AT14-AT15))</f>
         <v/>
@@ -9604,6 +10332,14 @@
       </c>
     </row>
     <row r="15" ht="12.8" customHeight="1" s="13">
+      <c r="A15" t="n">
+        <v>5</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C15" s="10">
         <f>IF(A14=A15,C14+1,1)</f>
         <v/>
@@ -9613,6 +10349,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
       <c r="H15" s="10">
         <f>IF(E15="","",IF(K15="x","d",IF(K15="p","d",IF(AJ15="o","o",IF(E15="1st",AK15,IF(E15="2nd",AL15,AJ15))))))</f>
         <v/>
@@ -9645,6 +10394,37 @@
       <c r="AL15" s="10">
         <f>IF((F15-F16)&lt;=1,"d",IF((F15-F16)&gt;=F15/2,"o","d"))</f>
         <v/>
+      </c>
+      <c r="AN15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>33</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Rushing Touchdown</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Cameron Ward run for 3 yds for a TD (Dean Janikowski KICK)</t>
+        </is>
       </c>
       <c r="BE15" s="10">
         <f>IF(AT15="","",IF(AT16="",AV15,AT15-AT16))</f>
@@ -9703,6 +10483,14 @@
       </c>
     </row>
     <row r="17" ht="12.8" customHeight="1" s="13">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C17" s="10">
         <f>IF(A16=A17,C16+1,1)</f>
         <v/>
@@ -9712,6 +10500,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="H17" s="10">
         <f>IF(E17="","",IF(K17="x","d",IF(K17="p","d",IF(AJ17="o","o",IF(E17="1st",AK17,IF(E17="2nd",AL17,AJ17))))))</f>
         <v/>
@@ -9740,6 +10541,37 @@
         <f>IF((F17-F18)&lt;=1,"d",IF((F17-F18)&gt;=F17/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Penalty</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>No Huddle-Shotgun Ward,Cameron pass incomplete short right PENALTY ASU Roughing The Passer (Dorbah,Prince) 15 yards from WSU25 to WSU40, 1ST DOWN. NO PLAY.</t>
+        </is>
+      </c>
       <c r="BE17" s="10">
         <f>IF(AT17="","",IF(AT18="",AV17,AT17-AT18))</f>
         <v/>
@@ -9750,6 +10582,14 @@
       </c>
     </row>
     <row r="18" ht="12.8" customHeight="1" s="13">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C18" s="10">
         <f>IF(A17=A18,C17+1,1)</f>
         <v/>
@@ -9759,6 +10599,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
       <c r="H18" s="10">
         <f>IF(E18="","",IF(K18="x","d",IF(K18="p","d",IF(AJ18="o","o",IF(E18="1st",AK18,IF(E18="2nd",AL18,AJ18))))))</f>
         <v/>
@@ -9792,6 +10645,37 @@
         <f>IF((F18-F19)&lt;=1,"d",IF((F18-F19)&gt;=F18/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Rush</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Nakia Watson run for no gain to the WSU 40</t>
+        </is>
+      </c>
       <c r="BE18" s="10">
         <f>IF(AT18="","",IF(AT19="",AV18,AT18-AT19))</f>
         <v/>
@@ -9802,6 +10686,14 @@
       </c>
     </row>
     <row r="19" ht="12.8" customHeight="1" s="13">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C19" s="10">
         <f>IF(A18=A19,C18+1,1)</f>
         <v/>
@@ -9811,6 +10703,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H19" s="10">
         <f>IF(E19="","",IF(K19="x","d",IF(K19="p","d",IF(AJ19="o","o",IF(E19="1st",AK19,IF(E19="2nd",AL19,AJ19))))))</f>
         <v/>
@@ -9839,6 +10744,37 @@
         <f>IF((F19-F20)&lt;=1,"d",IF((F19-F20)&gt;=F19/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Nakia Watson for 5 yds to the WSU 45</t>
+        </is>
+      </c>
       <c r="BE19" s="10">
         <f>IF(AT19="","",IF(AT20="",AV19,AT19-AT20))</f>
         <v/>
@@ -9849,6 +10785,14 @@
       </c>
     </row>
     <row r="20" ht="12.8" customHeight="1" s="13">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C20" s="10">
         <f>IF(A19=A20,C19+1,1)</f>
         <v/>
@@ -9858,6 +10802,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H20" s="10">
         <f>IF(E20="","",IF(K20="x","d",IF(K20="p","d",IF(AJ20="o","o",IF(E20="1st",AK20,IF(E20="2nd",AL20,AJ20))))))</f>
         <v/>
@@ -9885,6 +10842,37 @@
       <c r="AL20" s="10">
         <f>IF((F20-F21)&lt;=1,"d",IF((F20-F21)&gt;=F20/2,"o","d"))</f>
         <v/>
+      </c>
+      <c r="AN20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Pass Incompletion</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass incomplete to Josh Kelly</t>
+        </is>
       </c>
       <c r="BE20" s="10">
         <f>IF(AT20="","",IF(AT21="",AV20,AT20-AT21))</f>
@@ -9943,6 +10931,14 @@
       </c>
     </row>
     <row r="22" ht="12.8" customHeight="1" s="13">
+      <c r="A22" t="n">
+        <v>5</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C22" s="10">
         <f>IF(A21=A22,C21+1,1)</f>
         <v/>
@@ -9952,6 +10948,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H22" s="10">
         <f>IF(E22="","",IF(K22="x","d",IF(K22="p","d",IF(AJ22="o","o",IF(E22="1st",AK22,IF(E22="2nd",AL22,AJ22))))))</f>
         <v/>
@@ -9980,6 +10989,37 @@
         <f>IF((F22-F23)&lt;=1,"d",IF((F22-F23)&gt;=F22/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>68</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Kyle Williams for 4 yds to the WSU 36</t>
+        </is>
+      </c>
       <c r="BE22" s="10">
         <f>IF(AT22="","",IF(AT23="",AV22,AT22-AT23))</f>
         <v/>
@@ -9990,6 +11030,14 @@
       </c>
     </row>
     <row r="23" ht="12.8" customHeight="1" s="13">
+      <c r="A23" t="n">
+        <v>5</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C23" s="10">
         <f>IF(A22=A23,C22+1,1)</f>
         <v/>
@@ -9999,6 +11047,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>6</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="H23" s="10">
         <f>IF(E23="","",IF(K23="x","d",IF(K23="p","d",IF(AJ23="o","o",IF(E23="1st",AK23,IF(E23="2nd",AL23,AJ23))))))</f>
         <v/>
@@ -10027,6 +11088,37 @@
         <f>IF((F23-F24)&lt;=1,"d",IF((F23-F24)&gt;=F23/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>64</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>-10</v>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Penalty</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>No Huddle-Shotgun Ward,Cameron sacked for loss of 1 yard to the WSU35 (Taylor,Alphonso) PENALTY WSU Holding (Watson,Nakia) 10 yards from WSU36 to WSU26. NO PLAY.</t>
+        </is>
+      </c>
       <c r="BE23" s="10">
         <f>IF(AT23="","",IF(AT24="",AV23,AT23-AT24))</f>
         <v/>
@@ -10037,6 +11129,14 @@
       </c>
     </row>
     <row r="24" ht="12.8" customHeight="1" s="13">
+      <c r="A24" t="n">
+        <v>5</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C24" s="10">
         <f>IF(A23=A24,C23+1,1)</f>
         <v/>
@@ -10046,6 +11146,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>16</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
       <c r="H24" s="10">
         <f>IF(E24="","",IF(K24="x","d",IF(K24="p","d",IF(AJ24="o","o",IF(E24="1st",AK24,IF(E24="2nd",AL24,AJ24))))))</f>
         <v/>
@@ -10074,6 +11187,37 @@
         <f>IF((F24-F25)&lt;=1,"d",IF((F24-F25)&gt;=F24/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>74</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Rush</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Djouvensky Schlenbaker run for 8 yds to the WSU 34</t>
+        </is>
+      </c>
       <c r="BE24" s="10">
         <f>IF(AT24="","",IF(AT25="",AV24,AT24-AT25))</f>
         <v/>
@@ -10084,6 +11228,14 @@
       </c>
     </row>
     <row r="25" ht="12.8" customHeight="1" s="13">
+      <c r="A25" t="n">
+        <v>5</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C25" s="10">
         <f>IF(A24=A25,C24+1,1)</f>
         <v/>
@@ -10093,6 +11245,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>8</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="H25" s="10">
         <f>IF(E25="","",IF(K25="x","d",IF(K25="p","d",IF(AJ25="o","o",IF(E25="1st",AK25,IF(E25="2nd",AL25,AJ25))))))</f>
         <v/>
@@ -10121,6 +11286,37 @@
         <f>IF((F25-F26)&lt;=1,"d",IF((F25-F26)&gt;=F25/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>42</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>66</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Sack</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Cameron Ward sacked by Clayton Smith for a loss of 4 yards to the WSU 30</t>
+        </is>
+      </c>
       <c r="BE25" s="10">
         <f>IF(AT25="","",IF(AT26="",AV25,AT25-AT26))</f>
         <v/>
@@ -10131,6 +11327,14 @@
       </c>
     </row>
     <row r="26" ht="12.8" customHeight="1" s="13">
+      <c r="A26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C26" s="10">
         <f>IF(A25=A26,C25+1,1)</f>
         <v/>
@@ -10140,6 +11344,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>12</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="H26" s="10">
         <f>IF(E26="","",IF(K26="x","d",IF(K26="p","d",IF(AJ26="o","o",IF(E26="1st",AK26,IF(E26="2nd",AL26,AJ26))))))</f>
         <v/>
@@ -10167,6 +11384,37 @@
       <c r="AL26" s="10">
         <f>IF((F26-F27)&lt;=1,"d",IF((F26-F27)&gt;=F26/2,"o","d"))</f>
         <v/>
+      </c>
+      <c r="AN26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>42</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>-5</v>
+      </c>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Penalty</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>PENALTY WSU False Start (Moku,Tanner) 5 yards from WSU30 to WSU25. NO PLAY.</t>
+        </is>
       </c>
       <c r="BE26" s="10">
         <f>IF(AT26="","",IF(AT27="",AV26,AT26-AT27))</f>
@@ -10225,6 +11473,14 @@
       </c>
     </row>
     <row r="28" ht="12.8" customHeight="1" s="13">
+      <c r="A28" t="n">
+        <v>5</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C28" s="10">
         <f>IF(A27=A28,C27+1,1)</f>
         <v/>
@@ -10234,6 +11490,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>10</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H28" s="10">
         <f>IF(E28="","",IF(K28="x","d",IF(K28="p","d",IF(AJ28="o","o",IF(E28="1st",AK28,IF(E28="2nd",AL28,AJ28))))))</f>
         <v/>
@@ -10262,6 +11531,37 @@
         <f>IF((F28-F29)&lt;=1,"d",IF((F28-F29)&gt;=F28/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Lincoln Victor for 6 yds to the WSU 31</t>
+        </is>
+      </c>
       <c r="BE28" s="10">
         <f>IF(AT28="","",IF(AT29="",AV28,AT28-AT29))</f>
         <v/>
@@ -10272,6 +11572,14 @@
       </c>
     </row>
     <row r="29" ht="12.8" customHeight="1" s="13">
+      <c r="A29" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C29" s="10">
         <f>IF(A28=A29,C28+1,1)</f>
         <v/>
@@ -10281,6 +11589,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>4</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H29" s="10">
         <f>IF(E29="","",IF(K29="x","d",IF(K29="p","d",IF(AJ29="o","o",IF(E29="1st",AK29,IF(E29="2nd",AL29,AJ29))))))</f>
         <v/>
@@ -10309,6 +11630,37 @@
         <f>IF((F29-F30)&lt;=1,"d",IF((F29-F30)&gt;=F29/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>69</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Josh Meredith for 17 yds to the WSU 48 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE29" s="10">
         <f>IF(AT29="","",IF(AT30="",AV29,AT29-AT30))</f>
         <v/>
@@ -10319,6 +11671,14 @@
       </c>
     </row>
     <row r="30" ht="12.8" customHeight="1" s="13">
+      <c r="A30" t="n">
+        <v>5</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C30" s="10">
         <f>IF(A29=A30,C29+1,1)</f>
         <v/>
@@ -10328,6 +11688,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>10</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H30" s="10">
         <f>IF(E30="","",IF(K30="x","d",IF(K30="p","d",IF(AJ30="o","o",IF(E30="1st",AK30,IF(E30="2nd",AL30,AJ30))))))</f>
         <v/>
@@ -10356,6 +11729,37 @@
         <f>IF((F30-F31)&lt;=1,"d",IF((F30-F31)&gt;=F30/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>52</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Pass Incompletion</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass incomplete to Kyle Williams</t>
+        </is>
+      </c>
       <c r="BE30" s="10">
         <f>IF(AT30="","",IF(AT31="",AV30,AT30-AT31))</f>
         <v/>
@@ -10366,6 +11770,14 @@
       </c>
     </row>
     <row r="31" ht="12.8" customHeight="1" s="13">
+      <c r="A31" t="n">
+        <v>5</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C31" s="10">
         <f>IF(A30=A31,C30+1,1)</f>
         <v/>
@@ -10375,6 +11787,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>10</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H31" s="10">
         <f>IF(E31="","",IF(K31="x","d",IF(K31="p","d",IF(AJ31="o","o",IF(E31="1st",AK31,IF(E31="2nd",AL31,AJ31))))))</f>
         <v/>
@@ -10403,6 +11828,37 @@
         <f>IF((F31-F32)&lt;=1,"d",IF((F31-F32)&gt;=F31/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>52</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Lincoln Victor for 19 yds to the ASU 33 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE31" s="10">
         <f>IF(AT31="","",IF(AT32="",AV31,AT31-AT32))</f>
         <v/>
@@ -10413,6 +11869,14 @@
       </c>
     </row>
     <row r="32" ht="12.8" customHeight="1" s="13">
+      <c r="A32" t="n">
+        <v>5</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C32" s="10">
         <f>IF(A31=A32,C31+1,1)</f>
         <v/>
@@ -10422,6 +11886,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>10</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="H32" s="10">
         <f>IF(E32="","",IF(K32="x","d",IF(K32="p","d",IF(AJ32="o","o",IF(E32="1st",AK32,IF(E32="2nd",AL32,AJ32))))))</f>
         <v/>
@@ -10450,6 +11927,37 @@
         <f>IF((F32-F33)&lt;=1,"d",IF((F32-F33)&gt;=F32/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>33</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Penalty</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>No Huddle-Shotgun Ward,Cameron pass incomplete deep right to Kelly,Josh PENALTY ASU Offside (Green,B.J.) 5 yards from ASU33 to ASU28. NO PLAY.</t>
+        </is>
+      </c>
       <c r="BE32" s="10">
         <f>IF(AT32="","",IF(AT33="",AV32,AT32-AT33))</f>
         <v/>
@@ -10460,6 +11968,14 @@
       </c>
     </row>
     <row r="33" ht="12.8" customHeight="1" s="13">
+      <c r="A33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C33" s="10">
         <f>IF(A32=A33,C32+1,1)</f>
         <v/>
@@ -10469,6 +11985,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H33" s="10">
         <f>IF(E33="","",IF(K33="x","d",IF(K33="p","d",IF(AJ33="o","o",IF(E33="1st",AK33,IF(E33="2nd",AL33,AJ33))))))</f>
         <v/>
@@ -10497,6 +12026,37 @@
         <f>IF((F33-F34)&lt;=1,"d",IF((F33-F34)&gt;=F33/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Cooper Mathers for 18 yds to the ASU 10 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE33" s="10">
         <f>IF(AT33="","",IF(AT34="",AV33,AT33-AT34))</f>
         <v/>
@@ -10507,6 +12067,14 @@
       </c>
     </row>
     <row r="34" ht="12.8" customHeight="1" s="13">
+      <c r="A34" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C34" s="10">
         <f>IF(A33=A34,C33+1,1)</f>
         <v/>
@@ -10516,6 +12084,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>10</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="H34" s="10">
         <f>IF(E34="","",IF(K34="x","d",IF(K34="p","d",IF(AJ34="o","o",IF(E34="1st",AK34,IF(E34="2nd",AL34,AJ34))))))</f>
         <v/>
@@ -10549,6 +12130,37 @@
         <f>IF((F34-F35)&lt;=1,"d",IF((F34-F35)&gt;=F34/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Penalty</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>No Huddle-Shotgun Ward,Cameron rush left for 0 yards to the ASU10 (Brown,Tre) PENALTY ASU Offside (Dorbah,Prince) 5 yards from ASU10 to ASU05. NO PLAY.</t>
+        </is>
+      </c>
       <c r="BE34" s="10">
         <f>IF(AT34="","",IF(AT35="",AV34,AT34-AT35))</f>
         <v/>
@@ -10559,6 +12171,14 @@
       </c>
     </row>
     <row r="35" ht="12.8" customHeight="1" s="13">
+      <c r="A35" t="n">
+        <v>5</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C35" s="10">
         <f>IF(A34=A35,C34+1,1)</f>
         <v/>
@@ -10568,6 +12188,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H35" s="10">
         <f>IF(E35="","",IF(K35="x","d",IF(K35="p","d",IF(AJ35="o","o",IF(E35="1st",AK35,IF(E35="2nd",AL35,AJ35))))))</f>
         <v/>
@@ -10596,6 +12229,37 @@
         <f>IF((F35-F36)&lt;=1,"d",IF((F35-F36)&gt;=F35/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Kyle Williams for 6 yds to the ASU 11</t>
+        </is>
+      </c>
       <c r="BE35" s="10">
         <f>IF(AT35="","",IF(AT36="",AV35,AT35-AT36))</f>
         <v/>
@@ -10606,6 +12270,14 @@
       </c>
     </row>
     <row r="36" ht="12.8" customHeight="1" s="13">
+      <c r="A36" t="n">
+        <v>5</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C36" s="10">
         <f>IF(A35=A36,C35+1,1)</f>
         <v/>
@@ -10615,6 +12287,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>11</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
       <c r="H36" s="10">
         <f>IF(E36="","",IF(K36="x","d",IF(K36="p","d",IF(AJ36="o","o",IF(E36="1st",AK36,IF(E36="2nd",AL36,AJ36))))))</f>
         <v/>
@@ -10642,6 +12327,37 @@
       <c r="AL36" s="10">
         <f>IF((F36-F37)&lt;=1,"d",IF((F36-F37)&gt;=F36/2,"o","d"))</f>
         <v/>
+      </c>
+      <c r="AN36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>47</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Rushing Touchdown</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Cameron Ward run for 11 yds for a TD (Dean Janikowski KICK)</t>
+        </is>
       </c>
       <c r="BE36" s="10">
         <f>IF(AT36="","",IF(AT37="",AV36,AT36-AT37))</f>
@@ -10705,6 +12421,14 @@
       </c>
     </row>
     <row r="38" ht="12.8" customHeight="1" s="13">
+      <c r="A38" t="n">
+        <v>5</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C38" s="10">
         <f>IF(A37=A38,C37+1,1)</f>
         <v/>
@@ -10714,6 +12438,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>10</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H38" s="10">
         <f>IF(E38="","",IF(K38="x","d",IF(K38="p","d",IF(AJ38="o","o",IF(E38="1st",AK38,IF(E38="2nd",AL38,AJ38))))))</f>
         <v/>
@@ -10742,6 +12479,37 @@
         <f>IF((F38-F39)&lt;=1,"d",IF((F38-F39)&gt;=F38/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN38" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>75</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>38</v>
+      </c>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Kyle Williams for 38 yds to the ASU 37 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE38" s="10">
         <f>IF(AT38="","",IF(AT39="",AV38,AT38-AT39))</f>
         <v/>
@@ -10752,6 +12520,14 @@
       </c>
     </row>
     <row r="39" ht="12.8" customHeight="1" s="13">
+      <c r="A39" t="n">
+        <v>5</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C39" s="10">
         <f>IF(A38=A39,C38+1,1)</f>
         <v/>
@@ -10761,6 +12537,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>10</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
       <c r="H39" s="10">
         <f>IF(E39="","",IF(K39="x","d",IF(K39="p","d",IF(AJ39="o","o",IF(E39="1st",AK39,IF(E39="2nd",AL39,AJ39))))))</f>
         <v/>
@@ -10794,6 +12583,37 @@
         <f>IF((F39-F40)&lt;=1,"d",IF((F39-F40)&gt;=F39/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN39" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>37</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Rush</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Nakia Watson run for 16 yds to the ASU 21 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE39" s="10">
         <f>IF(AT39="","",IF(AT40="",AV39,AT39-AT40))</f>
         <v/>
@@ -10804,6 +12624,14 @@
       </c>
     </row>
     <row r="40" ht="12.8" customHeight="1" s="13">
+      <c r="A40" t="n">
+        <v>5</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C40" s="10">
         <f>IF(A39=A40,C39+1,1)</f>
         <v/>
@@ -10813,6 +12641,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>10</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H40" s="10">
         <f>IF(E40="","",IF(K40="x","d",IF(K40="p","d",IF(AJ40="o","o",IF(E40="1st",AK40,IF(E40="2nd",AL40,AJ40))))))</f>
         <v/>
@@ -10841,6 +12682,37 @@
         <f>IF((F40-F41)&lt;=1,"d",IF((F40-F41)&gt;=F40/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN40" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Pass Incompletion</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass incomplete</t>
+        </is>
+      </c>
       <c r="BE40" s="10">
         <f>IF(AT40="","",IF(AT41="",AV40,AT40-AT41))</f>
         <v/>
@@ -10851,6 +12723,14 @@
       </c>
     </row>
     <row r="41" ht="12.8" customHeight="1" s="13">
+      <c r="A41" t="n">
+        <v>5</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C41" s="10">
         <f>IF(A40=A41,C40+1,1)</f>
         <v/>
@@ -10860,6 +12740,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>10</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H41" s="10">
         <f>IF(E41="","",IF(K41="x","d",IF(K41="p","d",IF(AJ41="o","o",IF(E41="1st",AK41,IF(E41="2nd",AL41,AJ41))))))</f>
         <v/>
@@ -10888,6 +12781,37 @@
         <f>IF((F41-F42)&lt;=1,"d",IF((F41-F42)&gt;=F41/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN41" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Kyle Williams for 12 yds to the ASU 9 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE41" s="10">
         <f>IF(AT41="","",IF(AT42="",AV41,AT41-AT42))</f>
         <v/>
@@ -10898,6 +12822,14 @@
       </c>
     </row>
     <row r="42" ht="12.8" customHeight="1" s="13">
+      <c r="A42" t="n">
+        <v>5</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C42" s="10">
         <f>IF(A41=A42,C41+1,1)</f>
         <v/>
@@ -10907,6 +12839,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>9</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H42" s="10">
         <f>IF(E42="","",IF(K42="x","d",IF(K42="p","d",IF(AJ42="o","o",IF(E42="1st",AK42,IF(E42="2nd",AL42,AJ42))))))</f>
         <v/>
@@ -10934,6 +12879,37 @@
       <c r="AL42" s="10">
         <f>IF((F42-F43)&lt;=1,"d",IF((F42-F43)&gt;=F42/2,"o","d"))</f>
         <v/>
+      </c>
+      <c r="AN42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>42</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Passing Touchdown</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Lincoln Victor for 9 yds for a TD (Dean Janikowski KICK)</t>
+        </is>
       </c>
       <c r="BE42" s="10">
         <f>IF(AT42="","",IF(AT43="",AV42,AT42-AT43))</f>
@@ -10992,6 +12968,14 @@
       </c>
     </row>
     <row r="44" ht="12.8" customHeight="1" s="13">
+      <c r="A44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C44" s="10">
         <f>IF(A43=A44,C43+1,1)</f>
         <v/>
@@ -11001,6 +12985,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>10</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H44" s="10">
         <f>IF(E44="","",IF(K44="x","d",IF(K44="p","d",IF(AJ44="o","o",IF(E44="1st",AK44,IF(E44="2nd",AL44,AJ44))))))</f>
         <v/>
@@ -11029,6 +13026,37 @@
         <f>IF((F44-F45)&lt;=1,"d",IF((F44-F45)&gt;=F44/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>75</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Djouvensky Schlenbaker for 6 yds to the WSU 31</t>
+        </is>
+      </c>
       <c r="BE44" s="10">
         <f>IF(AT44="","",IF(AT45="",AV44,AT44-AT45))</f>
         <v/>
@@ -11039,6 +13067,14 @@
       </c>
     </row>
     <row r="45" ht="12.8" customHeight="1" s="13">
+      <c r="A45" t="n">
+        <v>5</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C45" s="10">
         <f>IF(A44=A45,C44+1,1)</f>
         <v/>
@@ -11048,6 +13084,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>4</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
       <c r="H45" s="10">
         <f>IF(E45="","",IF(K45="x","d",IF(K45="p","d",IF(AJ45="o","o",IF(E45="1st",AK45,IF(E45="2nd",AL45,AJ45))))))</f>
         <v/>
@@ -11081,6 +13130,37 @@
         <f>IF((F45-F46)&lt;=1,"d",IF((F45-F46)&gt;=F45/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>69</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Rush</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Cameron Ward run for 5 yds to the WSU 36 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE45" s="10">
         <f>IF(AT45="","",IF(AT46="",AV45,AT45-AT46))</f>
         <v/>
@@ -11091,6 +13171,14 @@
       </c>
     </row>
     <row r="46" ht="12.8" customHeight="1" s="13">
+      <c r="A46" t="n">
+        <v>5</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C46" s="10">
         <f>IF(A45=A46,C45+1,1)</f>
         <v/>
@@ -11100,6 +13188,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>10</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H46" s="10">
         <f>IF(E46="","",IF(K46="x","d",IF(K46="p","d",IF(AJ46="o","o",IF(E46="1st",AK46,IF(E46="2nd",AL46,AJ46))))))</f>
         <v/>
@@ -11128,6 +13229,37 @@
         <f>IF((F46-F47)&lt;=1,"d",IF((F46-F47)&gt;=F46/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>64</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Lincoln Victor for 4 yds to the WSU 32</t>
+        </is>
+      </c>
       <c r="BE46" s="10">
         <f>IF(AT46="","",IF(AT47="",AV46,AT46-AT47))</f>
         <v/>
@@ -11138,6 +13270,14 @@
       </c>
     </row>
     <row r="47" ht="12.8" customHeight="1" s="13">
+      <c r="A47" t="n">
+        <v>5</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C47" s="10">
         <f>IF(A46=A47,C46+1,1)</f>
         <v/>
@@ -11147,6 +13287,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>14</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H47" s="10">
         <f>IF(E47="","",IF(K47="x","d",IF(K47="p","d",IF(AJ47="o","o",IF(E47="1st",AK47,IF(E47="2nd",AL47,AJ47))))))</f>
         <v/>
@@ -11175,6 +13328,37 @@
         <f>IF((F47-F48)&lt;=1,"d",IF((F47-F48)&gt;=F47/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>68</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Isaiah Hamilton for 9 yds to the WSU 41</t>
+        </is>
+      </c>
       <c r="BE47" s="10">
         <f>IF(AT47="","",IF(AT48="",AV47,AT47-AT48))</f>
         <v/>
@@ -11185,6 +13369,14 @@
       </c>
     </row>
     <row r="48" ht="12.8" customHeight="1" s="13">
+      <c r="A48" t="n">
+        <v>5</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C48" s="10">
         <f>IF(A47=A48,C47+1,1)</f>
         <v/>
@@ -11194,6 +13386,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>5</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="H48" s="10">
         <f>IF(E48="","",IF(K48="x","d",IF(K48="p","d",IF(AJ48="o","o",IF(E48="1st",AK48,IF(E48="2nd",AL48,AJ48))))))</f>
         <v/>
@@ -11221,6 +13426,37 @@
       <c r="AL48" s="10">
         <f>IF((F48-F49)&lt;=1,"d",IF((F48-F49)&gt;=F48/2,"o","d"))</f>
         <v/>
+      </c>
+      <c r="AN48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>59</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Sack</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Cameron Ward sacked for a loss of 4 yards to the WSU 37</t>
+        </is>
       </c>
       <c r="BE48" s="10">
         <f>IF(AT48="","",IF(AT49="",AV48,AT48-AT49))</f>
@@ -11279,6 +13515,14 @@
       </c>
     </row>
     <row r="50" ht="12.8" customHeight="1" s="13">
+      <c r="A50" t="n">
+        <v>5</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C50" s="10">
         <f>IF(A49=A50,C49+1,1)</f>
         <v/>
@@ -11288,6 +13532,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>10</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
       <c r="H50" s="10">
         <f>IF(E50="","",IF(K50="x","d",IF(K50="p","d",IF(AJ50="o","o",IF(E50="1st",AK50,IF(E50="2nd",AL50,AJ50))))))</f>
         <v/>
@@ -11316,6 +13573,37 @@
         <f>IF((F50-F51)&lt;=1,"d",IF((F50-F51)&gt;=F50/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN50" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>52</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>74</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Rush</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Nakia Watson run for 2 yds to the WSU 28</t>
+        </is>
+      </c>
       <c r="BE50" s="10">
         <f>IF(AT50="","",IF(AT51="",AV50,AT50-AT51))</f>
         <v/>
@@ -11326,6 +13614,14 @@
       </c>
     </row>
     <row r="51" ht="12.8" customHeight="1" s="13">
+      <c r="A51" t="n">
+        <v>5</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C51" s="10">
         <f>IF(A50=A51,C50+1,1)</f>
         <v/>
@@ -11335,6 +13631,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>8</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="H51" s="10">
         <f>IF(E51="","",IF(K51="x","d",IF(K51="p","d",IF(AJ51="o","o",IF(E51="1st",AK51,IF(E51="2nd",AL51,AJ51))))))</f>
         <v/>
@@ -11363,6 +13672,37 @@
         <f>IF((F51-F52)&lt;=1,"d",IF((F51-F52)&gt;=F51/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN51" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>52</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>72</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Penalty</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>No Huddle-Shotgun Ward,Cameron sacked for loss of 1 yard to the WSU27 (Mallory,Dashaun) PENALTY ASU Holding (Torrence,Ro) 10 yards from WSU28 to WSU38, 1ST DOWN. NO PLAY.</t>
+        </is>
+      </c>
       <c r="BE51" s="10">
         <f>IF(AT51="","",IF(AT52="",AV51,AT51-AT52))</f>
         <v/>
@@ -11373,6 +13713,14 @@
       </c>
     </row>
     <row r="52" ht="12.8" customHeight="1" s="13">
+      <c r="A52" t="n">
+        <v>5</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C52" s="10">
         <f>IF(A51=A52,C51+1,1)</f>
         <v/>
@@ -11382,6 +13730,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>10</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H52" s="10">
         <f>IF(E52="","",IF(K52="x","d",IF(K52="p","d",IF(AJ52="o","o",IF(E52="1st",AK52,IF(E52="2nd",AL52,AJ52))))))</f>
         <v/>
@@ -11410,6 +13771,37 @@
         <f>IF((F52-F53)&lt;=1,"d",IF((F52-F53)&gt;=F52/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>52</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>62</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Pass Incompletion</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass incomplete to Nakia Watson</t>
+        </is>
+      </c>
       <c r="BE52" s="10">
         <f>IF(AT52="","",IF(AT53="",AV52,AT52-AT53))</f>
         <v/>
@@ -11420,6 +13812,14 @@
       </c>
     </row>
     <row r="53" ht="12.8" customHeight="1" s="13">
+      <c r="A53" t="n">
+        <v>5</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C53" s="10">
         <f>IF(A52=A53,C52+1,1)</f>
         <v/>
@@ -11429,6 +13829,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>10</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
       <c r="H53" s="10">
         <f>IF(E53="","",IF(K53="x","d",IF(K53="p","d",IF(AJ53="o","o",IF(E53="1st",AK53,IF(E53="2nd",AL53,AJ53))))))</f>
         <v/>
@@ -11457,6 +13870,37 @@
         <f>IF((F53-F54)&lt;=1,"d",IF((F53-F54)&gt;=F53/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN53" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>52</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>62</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Rush</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Cameron Ward run for 11 yds to the WSU 49 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE53" s="10">
         <f>IF(AT53="","",IF(AT54="",AV53,AT53-AT54))</f>
         <v/>
@@ -11467,6 +13911,14 @@
       </c>
     </row>
     <row r="54" ht="12.8" customHeight="1" s="13">
+      <c r="A54" t="n">
+        <v>5</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C54" s="10">
         <f>IF(A53=A54,C53+1,1)</f>
         <v/>
@@ -11476,6 +13928,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>10</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
       <c r="H54" s="10">
         <f>IF(E54="","",IF(K54="x","d",IF(K54="p","d",IF(AJ54="o","o",IF(E54="1st",AK54,IF(E54="2nd",AL54,AJ54))))))</f>
         <v/>
@@ -11504,6 +13969,37 @@
         <f>IF((F54-F55)&lt;=1,"d",IF((F54-F55)&gt;=F54/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN54" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>52</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>51</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Rush</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>John Mateer run for 15 yds to the ASU 36 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE54" s="10">
         <f>IF(AT54="","",IF(AT55="",AV54,AT54-AT55))</f>
         <v/>
@@ -11514,6 +14010,14 @@
       </c>
     </row>
     <row r="55" ht="12.8" customHeight="1" s="13">
+      <c r="A55" t="n">
+        <v>5</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C55" s="10">
         <f>IF(A54=A55,C54+1,1)</f>
         <v/>
@@ -11523,6 +14027,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>10</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H55" s="10">
         <f>IF(E55="","",IF(K55="x","d",IF(K55="p","d",IF(AJ55="o","o",IF(E55="1st",AK55,IF(E55="2nd",AL55,AJ55))))))</f>
         <v/>
@@ -11551,6 +14068,37 @@
         <f>IF((F55-F56)&lt;=1,"d",IF((F55-F56)&gt;=F55/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN55" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>52</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>36</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Isaiah Hamilton for 6 yds to the ASU 30</t>
+        </is>
+      </c>
       <c r="BE55" s="10">
         <f>IF(AT55="","",IF(AT56="",AV55,AT55-AT56))</f>
         <v/>
@@ -11561,6 +14109,14 @@
       </c>
     </row>
     <row r="56" ht="12.8" customHeight="1" s="13">
+      <c r="A56" t="n">
+        <v>5</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C56" s="10">
         <f>IF(A55=A56,C55+1,1)</f>
         <v/>
@@ -11570,6 +14126,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>4</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
       <c r="H56" s="10">
         <f>IF(E56="","",IF(K56="x","d",IF(K56="p","d",IF(AJ56="o","o",IF(E56="1st",AK56,IF(E56="2nd",AL56,AJ56))))))</f>
         <v/>
@@ -11598,6 +14167,37 @@
         <f>IF((F56-F57)&lt;=1,"d",IF((F56-F57)&gt;=F56/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN56" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>52</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>30</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Rush</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Nakia Watson run for 8 yds to the ASU 22 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE56" s="10">
         <f>IF(AT56="","",IF(AT57="",AV56,AT56-AT57))</f>
         <v/>
@@ -11608,6 +14208,14 @@
       </c>
     </row>
     <row r="57" ht="12.8" customHeight="1" s="13">
+      <c r="A57" t="n">
+        <v>5</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C57" s="10">
         <f>IF(A56=A57,C56+1,1)</f>
         <v/>
@@ -11617,6 +14225,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>10</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H57" s="10">
         <f>IF(E57="","",IF(K57="x","d",IF(K57="p","d",IF(AJ57="o","o",IF(E57="1st",AK57,IF(E57="2nd",AL57,AJ57))))))</f>
         <v/>
@@ -11645,6 +14266,37 @@
         <f>IF((F57-F58)&lt;=1,"d",IF((F57-F58)&gt;=F57/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN57" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>52</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Lincoln Victor for 8 yds to the ASU 14</t>
+        </is>
+      </c>
       <c r="BE57" s="10">
         <f>IF(AT57="","",IF(AT58="",AV57,AT57-AT58))</f>
         <v/>
@@ -11655,6 +14307,14 @@
       </c>
     </row>
     <row r="58" ht="12.8" customHeight="1" s="13">
+      <c r="A58" t="n">
+        <v>5</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C58" s="10">
         <f>IF(A57=A58,C57+1,1)</f>
         <v/>
@@ -11664,6 +14324,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
       <c r="H58" s="10">
         <f>IF(E58="","",IF(K58="x","d",IF(K58="p","d",IF(AJ58="o","o",IF(E58="1st",AK58,IF(E58="2nd",AL58,AJ58))))))</f>
         <v/>
@@ -11692,6 +14365,37 @@
         <f>IF((F58-F59)&lt;=1,"d",IF((F58-F59)&gt;=F58/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN58" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>52</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Rush</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Nakia Watson run for no gain to the ASU 14</t>
+        </is>
+      </c>
       <c r="BE58" s="10">
         <f>IF(AT58="","",IF(AT59="",AV58,AT58-AT59))</f>
         <v/>
@@ -11702,6 +14406,14 @@
       </c>
     </row>
     <row r="59" ht="12.8" customHeight="1" s="13">
+      <c r="A59" t="n">
+        <v>5</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C59" s="10">
         <f>IF(A58=A59,C58+1,1)</f>
         <v/>
@@ -11711,6 +14423,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H59" s="10">
         <f>IF(E59="","",IF(K59="x","d",IF(K59="p","d",IF(AJ59="o","o",IF(E59="1st",AK59,IF(E59="2nd",AL59,AJ59))))))</f>
         <v/>
@@ -11738,6 +14463,37 @@
       <c r="AL59" s="10">
         <f>IF((F59-F60)&lt;=1,"d",IF((F59-F60)&gt;=F59/2,"o","d"))</f>
         <v/>
+      </c>
+      <c r="AN59" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>52</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Pass Incompletion</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass incomplete to Nakia Watson</t>
+        </is>
       </c>
       <c r="BE59" s="10">
         <f>IF(AT59="","",IF(AT60="",AV59,AT59-AT60))</f>
@@ -11796,6 +14552,14 @@
       </c>
     </row>
     <row r="61" ht="12.8" customHeight="1" s="13">
+      <c r="A61" t="n">
+        <v>5</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C61" s="10">
         <f>IF(A60=A61,C60+1,1)</f>
         <v/>
@@ -11805,6 +14569,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>10</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H61" s="10">
         <f>IF(E61="","",IF(K61="x","d",IF(K61="p","d",IF(AJ61="o","o",IF(E61="1st",AK61,IF(E61="2nd",AL61,AJ61))))))</f>
         <v/>
@@ -11833,6 +14610,37 @@
         <f>IF((F61-F62)&lt;=1,"d",IF((F61-F62)&gt;=F61/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN61" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>53</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>65</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Isaiah Hamilton for 5 yds to the WSU 40</t>
+        </is>
+      </c>
       <c r="BE61" s="10">
         <f>IF(AT61="","",IF(AT62="",AV61,AT61-AT62))</f>
         <v/>
@@ -11843,6 +14651,14 @@
       </c>
     </row>
     <row r="62" ht="12.8" customHeight="1" s="13">
+      <c r="A62" t="n">
+        <v>5</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C62" s="10">
         <f>IF(A61=A62,C61+1,1)</f>
         <v/>
@@ -11852,6 +14668,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>5</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H62" s="10">
         <f>IF(E62="","",IF(K62="x","d",IF(K62="p","d",IF(AJ62="o","o",IF(E62="1st",AK62,IF(E62="2nd",AL62,AJ62))))))</f>
         <v/>
@@ -11880,6 +14709,37 @@
         <f>IF((F62-F63)&lt;=1,"d",IF((F62-F63)&gt;=F62/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN62" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>53</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>60</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Pass Incompletion</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass incomplete to Lincoln Victor</t>
+        </is>
+      </c>
       <c r="BE62" s="10">
         <f>IF(AT62="","",IF(AT63="",AV62,AT62-AT63))</f>
         <v/>
@@ -11890,6 +14750,14 @@
       </c>
     </row>
     <row r="63" ht="12.8" customHeight="1" s="13">
+      <c r="A63" t="n">
+        <v>5</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C63" s="10">
         <f>IF(A62=A63,C62+1,1)</f>
         <v/>
@@ -11899,6 +14767,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>5</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H63" s="10">
         <f>IF(E63="","",IF(K63="x","d",IF(K63="p","d",IF(AJ63="o","o",IF(E63="1st",AK63,IF(E63="2nd",AL63,AJ63))))))</f>
         <v/>
@@ -11927,6 +14808,37 @@
         <f>IF((F63-F64)&lt;=1,"d",IF((F63-F64)&gt;=F63/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN63" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>53</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>60</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Isaiah Hamilton for 15 yds to the ASU 45 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE63" s="10">
         <f>IF(AT63="","",IF(AT64="",AV63,AT63-AT64))</f>
         <v/>
@@ -11937,6 +14849,14 @@
       </c>
     </row>
     <row r="64" ht="12.8" customHeight="1" s="13">
+      <c r="A64" t="n">
+        <v>5</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C64" s="10">
         <f>IF(A63=A64,C63+1,1)</f>
         <v/>
@@ -11946,6 +14866,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>10</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H64" s="10">
         <f>IF(E64="","",IF(K64="x","d",IF(K64="p","d",IF(AJ64="o","o",IF(E64="1st",AK64,IF(E64="2nd",AL64,AJ64))))))</f>
         <v/>
@@ -11974,6 +14907,37 @@
         <f>IF((F64-F65)&lt;=1,"d",IF((F64-F65)&gt;=F64/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN64" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>53</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>45</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Isaiah Hamilton for 14 yds to the ASU 31 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE64" s="10">
         <f>IF(AT64="","",IF(AT65="",AV64,AT64-AT65))</f>
         <v/>
@@ -11984,6 +14948,14 @@
       </c>
     </row>
     <row r="65" ht="12.8" customHeight="1" s="13">
+      <c r="A65" t="n">
+        <v>5</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C65" s="10">
         <f>IF(A64=A65,C64+1,1)</f>
         <v/>
@@ -11993,6 +14965,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>10</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H65" s="10">
         <f>IF(E65="","",IF(K65="x","d",IF(K65="p","d",IF(AJ65="o","o",IF(E65="1st",AK65,IF(E65="2nd",AL65,AJ65))))))</f>
         <v/>
@@ -12021,6 +15006,37 @@
         <f>IF((F65-F66)&lt;=1,"d",IF((F65-F66)&gt;=F65/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN65" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>53</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>31</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Lincoln Victor for 8 yds to the ASU 23</t>
+        </is>
+      </c>
       <c r="BE65" s="10">
         <f>IF(AT65="","",IF(AT66="",AV65,AT65-AT66))</f>
         <v/>
@@ -12031,6 +15047,14 @@
       </c>
     </row>
     <row r="66" ht="12.8" customHeight="1" s="13">
+      <c r="A66" t="n">
+        <v>5</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C66" s="10">
         <f>IF(A65=A66,C65+1,1)</f>
         <v/>
@@ -12040,6 +15064,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
       <c r="H66" s="10">
         <f>IF(E66="","",IF(K66="x","d",IF(K66="p","d",IF(AJ66="o","o",IF(E66="1st",AK66,IF(E66="2nd",AL66,AJ66))))))</f>
         <v/>
@@ -12068,6 +15105,37 @@
         <f>IF((F66-F67)&lt;=1,"d",IF((F66-F67)&gt;=F66/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN66" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>53</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>23</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>Rush</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>Cameron Ward run for 6 yds to the ASU 17 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE66" s="10">
         <f>IF(AT66="","",IF(AT67="",AV66,AT66-AT67))</f>
         <v/>
@@ -12078,6 +15146,14 @@
       </c>
     </row>
     <row r="67" ht="12.8" customHeight="1" s="13">
+      <c r="A67" t="n">
+        <v>5</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C67" s="10">
         <f>IF(A66=A67,C66+1,1)</f>
         <v/>
@@ -12087,6 +15163,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>10</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="H67" s="10">
         <f>IF(E67="","",IF(K67="x","d",IF(K67="p","d",IF(AJ67="o","o",IF(E67="1st",AK67,IF(E67="2nd",AL67,AJ67))))))</f>
         <v/>
@@ -12115,6 +15204,37 @@
         <f>IF((F67-F68)&lt;=1,"d",IF((F67-F68)&gt;=F67/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN67" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>53</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>Fumble Recovery (Own)</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>Cameron Ward run for 5 yds to the ASU 12 Cameron Ward fumbled, recovered by WSU Cameron Ward No Huddle-Shotgun Ward,Cameron rush middle for 5 yards gain to the ASU12 fumbled by Ward,Cameron at ASU24 recovered by WSU Ward,Cameron at ASU24 (Simmons,Shamari).</t>
+        </is>
+      </c>
       <c r="BE67" s="10">
         <f>IF(AT67="","",IF(AT68="",AV67,AT67-AT68))</f>
         <v/>
@@ -12125,6 +15245,14 @@
       </c>
     </row>
     <row r="68" ht="12.8" customHeight="1" s="13">
+      <c r="A68" t="n">
+        <v>5</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C68" s="10">
         <f>IF(A67=A68,C67+1,1)</f>
         <v/>
@@ -12134,6 +15262,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>5</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
       <c r="H68" s="10">
         <f>IF(E68="","",IF(K68="x","d",IF(K68="p","d",IF(AJ68="o","o",IF(E68="1st",AK68,IF(E68="2nd",AL68,AJ68))))))</f>
         <v/>
@@ -12162,6 +15303,37 @@
         <f>IF((F68-F69)&lt;=1,"d",IF((F68-F69)&gt;=F68/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN68" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>53</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Rush</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>Nakia Watson run for 1 yd to the ASU 13</t>
+        </is>
+      </c>
       <c r="BE68" s="10">
         <f>IF(AT68="","",IF(AT69="",AV68,AT68-AT69))</f>
         <v/>
@@ -12172,6 +15344,14 @@
       </c>
     </row>
     <row r="69" ht="12.8" customHeight="1" s="13">
+      <c r="A69" t="n">
+        <v>5</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C69" s="10">
         <f>IF(A68=A69,C68+1,1)</f>
         <v/>
@@ -12181,6 +15361,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>6</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="H69" s="10">
         <f>IF(E69="","",IF(K69="x","d",IF(K69="p","d",IF(AJ69="o","o",IF(E69="1st",AK69,IF(E69="2nd",AL69,AJ69))))))</f>
         <v/>
@@ -12209,6 +15402,37 @@
         <f>IF((F69-F70)&lt;=1,"d",IF((F69-F70)&gt;=F69/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN69" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>53</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>Penalty</t>
+        </is>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>Arizona State Penalty, UNR: Unnecessary Roughness (Alphonso Taylor) to the ASU 6 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE69" s="10">
         <f>IF(AT69="","",IF(AT70="",AV69,AT69-AT70))</f>
         <v/>
@@ -12219,6 +15443,14 @@
       </c>
     </row>
     <row r="70" ht="12.8" customHeight="1" s="13">
+      <c r="A70" t="n">
+        <v>5</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C70" s="10">
         <f>IF(A69=A70,C69+1,1)</f>
         <v/>
@@ -12228,6 +15460,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>6</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H70" s="10">
         <f>IF(E70="","",IF(K70="x","d",IF(K70="p","d",IF(AJ70="o","o",IF(E70="1st",AK70,IF(E70="2nd",AL70,AJ70))))))</f>
         <v/>
@@ -12256,6 +15501,37 @@
         <f>IF((F70-F71)&lt;=1,"d",IF((F70-F71)&gt;=F70/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN70" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>Pass Incompletion</t>
+        </is>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass incomplete</t>
+        </is>
+      </c>
       <c r="BE70" s="10">
         <f>IF(AT70="","",IF(AT71="",AV70,AT70-AT71))</f>
         <v/>
@@ -12266,6 +15542,14 @@
       </c>
     </row>
     <row r="71" ht="12.8" customHeight="1" s="13">
+      <c r="A71" t="n">
+        <v>5</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C71" s="10">
         <f>IF(A70=A71,C70+1,1)</f>
         <v/>
@@ -12275,6 +15559,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>6</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H71" s="10">
         <f>IF(E71="","",IF(K71="x","d",IF(K71="p","d",IF(AJ71="o","o",IF(E71="1st",AK71,IF(E71="2nd",AL71,AJ71))))))</f>
         <v/>
@@ -12303,6 +15600,37 @@
         <f>IF((F71-F72)&lt;=1,"d",IF((F71-F72)&gt;=F71/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN71" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Nakia Watson for 4 yds to the ASU 10</t>
+        </is>
+      </c>
       <c r="BE71" s="10">
         <f>IF(AT71="","",IF(AT72="",AV71,AT71-AT72))</f>
         <v/>
@@ -12313,6 +15641,14 @@
       </c>
     </row>
     <row r="72" ht="12.8" customHeight="1" s="13">
+      <c r="A72" t="n">
+        <v>5</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C72" s="10">
         <f>IF(A71=A72,C71+1,1)</f>
         <v/>
@@ -12322,6 +15658,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>10</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
       <c r="H72" s="10">
         <f>IF(E72="","",IF(K72="x","d",IF(K72="p","d",IF(AJ72="o","o",IF(E72="1st",AK72,IF(E72="2nd",AL72,AJ72))))))</f>
         <v/>
@@ -12349,6 +15698,37 @@
       <c r="AL72" s="10">
         <f>IF((F72-F73)&lt;=1,"d",IF((F72-F73)&gt;=F72/2,"o","d"))</f>
         <v/>
+      </c>
+      <c r="AN72" t="n">
+        <v>24</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>-7</v>
+      </c>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>Sack</t>
+        </is>
+      </c>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>Cameron Ward sacked by B.J. Green II for a loss of 7 yards to the ASU 17</t>
+        </is>
       </c>
       <c r="BE72" s="10">
         <f>IF(AT72="","",IF(AT73="",AV72,AT72-AT73))</f>
@@ -12407,6 +15787,14 @@
       </c>
     </row>
     <row r="74" ht="12.8" customHeight="1" s="13">
+      <c r="A74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C74" s="10">
         <f>IF(A73=A74,C73+1,1)</f>
         <v/>
@@ -12416,6 +15804,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>10</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H74" s="10">
         <f>IF(E74="","",IF(K74="x","d",IF(K74="p","d",IF(AJ74="o","o",IF(E74="1st",AK74,IF(E74="2nd",AL74,AJ74))))))</f>
         <v/>
@@ -12444,6 +15845,37 @@
         <f>IF((F74-F75)&lt;=1,"d",IF((F74-F75)&gt;=F74/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN74" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>74</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>28</v>
+      </c>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Josh Kelly for 28 yds to the ASU 46 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE74" s="10">
         <f>IF(AT74="","",IF(AT75="",AV74,AT74-AT75))</f>
         <v/>
@@ -12454,6 +15886,14 @@
       </c>
     </row>
     <row r="75" ht="12.8" customHeight="1" s="13">
+      <c r="A75" t="n">
+        <v>5</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C75" s="10">
         <f>IF(A74=A75,C74+1,1)</f>
         <v/>
@@ -12463,6 +15903,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>10</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H75" s="10">
         <f>IF(E75="","",IF(K75="x","d",IF(K75="p","d",IF(AJ75="o","o",IF(E75="1st",AK75,IF(E75="2nd",AL75,AJ75))))))</f>
         <v/>
@@ -12491,6 +15944,37 @@
         <f>IF((F75-F76)&lt;=1,"d",IF((F75-F76)&gt;=F75/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN75" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Nakia Watson for 9 yds to the ASU 37</t>
+        </is>
+      </c>
       <c r="BE75" s="10">
         <f>IF(AT75="","",IF(AT76="",AV75,AT75-AT76))</f>
         <v/>
@@ -12501,6 +15985,14 @@
       </c>
     </row>
     <row r="76" ht="12.8" customHeight="1" s="13">
+      <c r="A76" t="n">
+        <v>5</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C76" s="10">
         <f>IF(A75=A76,C75+1,1)</f>
         <v/>
@@ -12510,6 +16002,19 @@
           <t>ddd</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
       <c r="H76" s="10">
         <f>IF(E76="","",IF(K76="x","d",IF(K76="p","d",IF(AJ76="o","o",IF(E76="1st",AK76,IF(E76="2nd",AL76,AJ76))))))</f>
         <v/>
@@ -12538,6 +16043,37 @@
         <f>IF((F76-F77)&lt;=1,"d",IF((F76-F77)&gt;=F76/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN76" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>37</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW76" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Lincoln Victor for 9 yds to the ASU 28 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BE76" s="10">
         <f>IF(AT76="","",IF(AT77="",AV76,AT76-AT77))</f>
         <v/>
@@ -12548,6 +16084,14 @@
       </c>
     </row>
     <row r="77" ht="12.8" customHeight="1" s="13">
+      <c r="A77" t="n">
+        <v>5</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C77" s="10">
         <f>IF(A76=A77,C76+1,1)</f>
         <v/>
@@ -12555,6 +16099,19 @@
       <c r="D77" s="14" t="inlineStr">
         <is>
           <t>ddd</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>10</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>p</t>
         </is>
       </c>
       <c r="H77" s="10">
@@ -12583,6 +16140,37 @@
         <f>IF((F77-F78)&lt;=1,"d",IF((F77-F78)&gt;=F77/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN77" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>28</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Djouvensky Schlenbaker for 11 yds to the ASU 17 for a 1ST down Arizona State Penalty, Illegal Substitution (Yards) declined for a 1ST down</t>
+        </is>
+      </c>
       <c r="BD77" s="10" t="n"/>
       <c r="BE77" s="10">
         <f>IF(AT77="","",IF(AT78="",AV77,AT77-AT78))</f>
@@ -12594,6 +16182,14 @@
       </c>
     </row>
     <row r="78" ht="12.8" customHeight="1" s="13">
+      <c r="A78" t="n">
+        <v>5</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C78" s="10">
         <f>IF(A77=A78,C77+1,1)</f>
         <v/>
@@ -12601,6 +16197,19 @@
       <c r="D78" s="14" t="inlineStr">
         <is>
           <t>ddd</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>10</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>p</t>
         </is>
       </c>
       <c r="H78" s="10">
@@ -12629,6 +16238,37 @@
         <f>IF((F78-F79)&lt;=1,"d",IF((F78-F79)&gt;=F78/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN78" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW78" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX78" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Kyle Williams for 9 yds to the ASU 8</t>
+        </is>
+      </c>
       <c r="BD78" s="10" t="n"/>
       <c r="BE78" s="10">
         <f>IF(AT78="","",IF(AT79="",AV78,AT78-AT79))</f>
@@ -12640,6 +16280,14 @@
       </c>
     </row>
     <row r="79" ht="12.8" customHeight="1" s="13">
+      <c r="A79" t="n">
+        <v>5</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C79" s="10">
         <f>IF(A78=A79,C78+1,1)</f>
         <v/>
@@ -12647,6 +16295,19 @@
       <c r="D79" s="14" t="inlineStr">
         <is>
           <t>ddd</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>p</t>
         </is>
       </c>
       <c r="H79" s="10">
@@ -12675,6 +16336,37 @@
         <f>IF((F79-F80)&lt;=1,"d",IF((F79-F80)&gt;=F79/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN79" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW79" t="inlineStr">
+        <is>
+          <t>Pass Incompletion</t>
+        </is>
+      </c>
+      <c r="AX79" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass incomplete to Josh Kelly</t>
+        </is>
+      </c>
       <c r="BD79" s="10" t="n"/>
       <c r="BE79" s="10">
         <f>IF(AT79="","",IF(AT80="",AV79,AT79-AT80))</f>
@@ -12686,6 +16378,14 @@
       </c>
     </row>
     <row r="80" ht="12.8" customHeight="1" s="13">
+      <c r="A80" t="n">
+        <v>5</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C80" s="10">
         <f>IF(A79=A80,C79+1,1)</f>
         <v/>
@@ -12693,6 +16393,19 @@
       <c r="D80" s="14" t="inlineStr">
         <is>
           <t>ddd</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>p</t>
         </is>
       </c>
       <c r="H80" s="10">
@@ -12721,6 +16434,37 @@
         <f>IF((F80-F81)&lt;=1,"d",IF((F80-F81)&gt;=F80/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN80" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX80" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Lincoln Victor for 4 yds to the ASU 12</t>
+        </is>
+      </c>
       <c r="BD80" s="10" t="n"/>
       <c r="BE80" s="10">
         <f>IF(AT80="","",IF(AT81="",AV80,AT80-AT81))</f>
@@ -12732,6 +16476,14 @@
       </c>
     </row>
     <row r="81" ht="12.8" customHeight="1" s="13">
+      <c r="A81" t="n">
+        <v>5</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C81" s="10">
         <f>IF(A80=A81,C80+1,1)</f>
         <v/>
@@ -12739,6 +16491,19 @@
       <c r="D81" s="14" t="inlineStr">
         <is>
           <t>ddd</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>5</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>r</t>
         </is>
       </c>
       <c r="H81" s="10">
@@ -12767,6 +16532,37 @@
         <f>IF((F81-F82)&lt;=1,"d",IF((F81-F82)&gt;=F81/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN81" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>Rush</t>
+        </is>
+      </c>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>Cameron Ward run for 6 yds to the ASU 6 for a 1ST down</t>
+        </is>
+      </c>
       <c r="BD81" s="10" t="n"/>
       <c r="BE81" s="10">
         <f>IF(AT81="","",IF(AT82="",AV81,AT81-AT82))</f>
@@ -12778,6 +16574,14 @@
       </c>
     </row>
     <row r="82" ht="12.8" customHeight="1" s="13">
+      <c r="A82" t="n">
+        <v>5</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C82" s="10">
         <f>IF(A81=A82,C81+1,1)</f>
         <v/>
@@ -12785,6 +16589,19 @@
       <c r="D82" s="14" t="inlineStr">
         <is>
           <t>ddd</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>6</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>p</t>
         </is>
       </c>
       <c r="H82" s="10">
@@ -12813,6 +16630,37 @@
         <f>IF((F82-F83)&lt;=1,"d",IF((F82-F83)&gt;=F82/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN82" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW82" t="inlineStr">
+        <is>
+          <t>Pass Incompletion</t>
+        </is>
+      </c>
+      <c r="AX82" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass incomplete to Josh Kelly</t>
+        </is>
+      </c>
       <c r="BD82" s="10" t="n"/>
       <c r="BE82" s="10">
         <f>IF(AT82="","",IF(AT83="",AV82,AT82-AT83))</f>
@@ -12824,6 +16672,14 @@
       </c>
     </row>
     <row r="83" ht="12.8" customHeight="1" s="13">
+      <c r="A83" t="n">
+        <v>5</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C83" s="10">
         <f>IF(A82=A83,C82+1,1)</f>
         <v/>
@@ -12831,6 +16687,19 @@
       <c r="D83" s="14" t="inlineStr">
         <is>
           <t>ddd</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>6</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>p</t>
         </is>
       </c>
       <c r="H83" s="10">
@@ -12859,6 +16728,37 @@
         <f>IF((F83-F84)&lt;=1,"d",IF((F83-F84)&gt;=F83/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN83" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW83" t="inlineStr">
+        <is>
+          <t>Pass Incompletion</t>
+        </is>
+      </c>
+      <c r="AX83" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass incomplete to Josh Kelly</t>
+        </is>
+      </c>
       <c r="BD83" s="10" t="n"/>
       <c r="BE83" s="10">
         <f>IF(AT83="","",IF(AT84="",AV83,AT83-AT84))</f>
@@ -12870,6 +16770,14 @@
       </c>
     </row>
     <row r="84" ht="12.8" customHeight="1" s="13">
+      <c r="A84" t="n">
+        <v>5</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C84" s="10">
         <f>IF(A83=A84,C83+1,1)</f>
         <v/>
@@ -12877,6 +16785,19 @@
       <c r="D84" s="14" t="inlineStr">
         <is>
           <t>ddd</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>6</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>p</t>
         </is>
       </c>
       <c r="H84" s="10">
@@ -12905,6 +16826,37 @@
         <f>IF((F84-F85)&lt;=1,"d",IF((F84-F85)&gt;=F84/2,"o","d"))</f>
         <v/>
       </c>
+      <c r="AN84" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW84" t="inlineStr">
+        <is>
+          <t>Pass Reception</t>
+        </is>
+      </c>
+      <c r="AX84" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass complete to Kyle Williams for 4 yds to the ASU 2</t>
+        </is>
+      </c>
       <c r="BD84" s="10" t="n"/>
       <c r="BE84" s="10">
         <f>IF(AT84="","",IF(AT85="",AV84,AT84-AT85))</f>
@@ -12916,6 +16868,14 @@
       </c>
     </row>
     <row r="85" ht="12.8" customHeight="1" s="13">
+      <c r="A85" t="n">
+        <v>5</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
       <c r="C85" s="10">
         <f>IF(A84=A85,C84+1,1)</f>
         <v/>
@@ -12923,6 +16883,19 @@
       <c r="D85" s="14" t="inlineStr">
         <is>
           <t>ddd</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>4th</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>2</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>p</t>
         </is>
       </c>
       <c r="H85" s="10">
@@ -12950,6 +16923,37 @@
       <c r="AL85" s="10">
         <f>IF((F85-F86)&lt;=1,"d",IF((F85-F86)&gt;=F85/2,"o","d"))</f>
         <v/>
+      </c>
+      <c r="AN85" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>51</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW85" t="inlineStr">
+        <is>
+          <t>Pass Incompletion</t>
+        </is>
+      </c>
+      <c r="AX85" t="inlineStr">
+        <is>
+          <t>Cameron Ward pass incomplete to Kyle Williams</t>
+        </is>
       </c>
       <c r="BD85" s="10" t="n"/>
       <c r="BE85" s="10">
